--- a/public/Excels/tabla_base_COMPONENTES_TECNOLOGICOS.xlsx
+++ b/public/Excels/tabla_base_COMPONENTES_TECNOLOGICOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leito\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45D0828-B48E-4E83-8588-90087B5DBF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0E7D0-ABC4-41CC-B027-D3A640DA2EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3AC2514-FC5A-4498-A8E8-93E62F7EA7E3}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E3AC2514-FC5A-4498-A8E8-93E62F7EA7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,11 +243,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -257,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A20D413-F8CD-48D6-B0A1-0470A6C2F7BB}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +633,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>730854</v>
+      <c r="A2" s="4">
+        <v>3349761</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -629,8 +647,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>730854</v>
+      <c r="A3" s="4">
+        <v>3349761</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -643,8 +661,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>730854</v>
+      <c r="A4" s="4">
+        <v>3349761</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -658,7 +676,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3218614</v>
+        <v>3218622</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -672,7 +690,7 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>3218614</v>
+        <v>3218622</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -686,7 +704,7 @@
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>3218614</v>
+        <v>3218622</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -700,7 +718,7 @@
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>3218615</v>
+        <v>3349754</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -714,7 +732,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3218615</v>
+        <v>3349754</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -728,7 +746,7 @@
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3218615</v>
+        <v>3349754</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -742,7 +760,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>3349753</v>
+        <v>3349760</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -756,7 +774,7 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>3349753</v>
+        <v>3349760</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -770,7 +788,7 @@
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3349753</v>
+        <v>3349760</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
@@ -784,7 +802,7 @@
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>3358260</v>
+        <v>3349760</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -798,7 +816,7 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3358260</v>
+        <v>3349755</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -812,7 +830,7 @@
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>3358260</v>
+        <v>3349755</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -826,7 +844,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>3349761</v>
+        <v>3349755</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
@@ -840,7 +858,7 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>3349761</v>
+        <v>3349755</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
@@ -854,7 +872,7 @@
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>3349761</v>
+        <v>3349755</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -868,7 +886,7 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>3349761</v>
+        <v>3349755</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>40</v>
